--- a/GA/resultsMyNSGAIIExperiment/Ejecuciones/Def_0/Contrastes.xlsx
+++ b/GA/resultsMyNSGAIIExperiment/Ejecuciones/Def_0/Contrastes.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TEMP\GA\GA\resultsMyNSGAIIExperiment\Ejecuciones\Def_0\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="18855" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Contrastes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="36">
   <si>
     <t>BLXEscal_HV.res</t>
   </si>
@@ -101,13 +106,34 @@
   </si>
   <si>
     <t>SBXProp_EPSILON.res</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>Símbolo</t>
+  </si>
+  <si>
+    <t>Intervalo de confianza</t>
+  </si>
+  <si>
+    <t>&gt;95%</t>
+  </si>
+  <si>
+    <t>&gt;99%</t>
+  </si>
+  <si>
+    <t>Positivo, mejor columna que fila al intervalo especificado</t>
+  </si>
+  <si>
+    <t>Negativo, mejor fila que columna al intervalo especificado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,7 +270,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,8 +462,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -552,6 +584,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -597,11 +644,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -626,6 +677,7 @@
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
@@ -642,13 +694,20 @@
     <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -695,7 +754,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -727,9 +786,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -761,6 +821,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -936,14 +997,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
@@ -952,9 +1013,10 @@
     <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -974,7 +1036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -996,8 +1058,14 @@
       <c r="G2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="I2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1019,8 +1087,14 @@
       <c r="G3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="I3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1042,8 +1116,14 @@
       <c r="G4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="I4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1065,8 +1145,14 @@
       <c r="G5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="I5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1088,8 +1174,14 @@
       <c r="G6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="I6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1111,8 +1203,18 @@
       <c r="G7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="I7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -1132,7 +1234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1155,7 +1257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1178,7 +1280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1201,7 +1303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1224,7 +1326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1247,7 +1349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1270,7 +1372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1290,7 +1392,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1313,7 +1415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1336,7 +1438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1359,7 +1461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1382,7 +1484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1405,7 +1507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -1428,7 +1530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>23</v>
       </c>
@@ -1448,7 +1550,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1471,7 +1573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1494,7 +1596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1517,7 +1619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1540,7 +1642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -1563,7 +1665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
